--- a/MB Number of Players/NumberOfPlayers.xlsx
+++ b/MB Number of Players/NumberOfPlayers.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">No. of players</t>
   </si>
   <si>
-    <t xml:space="preserve">Growth (+)</t>
+    <t xml:space="preserve">Increase (+)</t>
   </si>
   <si>
     <t xml:space="preserve">WR Time</t>
@@ -960,11 +960,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="35931683"/>
-        <c:axId val="98160536"/>
+        <c:axId val="4364978"/>
+        <c:axId val="53933818"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="35931683"/>
+        <c:axId val="4364978"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1001,7 +1001,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98160536"/>
+        <c:crossAx val="53933818"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1009,7 +1009,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98160536"/>
+        <c:axId val="53933818"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +1046,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35931683"/>
+        <c:crossAx val="4364978"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -1085,9 +1085,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>15480</xdr:colOff>
+      <xdr:colOff>15120</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>138240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1096,7 +1096,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7665480" y="576000"/>
-        <a:ext cx="15450840" cy="6230160"/>
+        <a:ext cx="15450480" cy="6229800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1116,8 +1116,8 @@
   </sheetPr>
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/MB Number of Players/NumberOfPlayers.xlsx
+++ b/MB Number of Players/NumberOfPlayers.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Main Babe Only" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Arkusz 1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="95">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t xml:space="preserve">May 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 2024</t>
   </si>
 </sst>
 </file>
@@ -514,7 +517,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -569,9 +572,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Main Babe Only'!$A$2:$A$62</c:f>
+              <c:f>'Arkusz 1'!$A$2:$A$63</c:f>
               <c:strCache>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>May 2019</c:v>
                 </c:pt>
@@ -754,16 +757,19 @@
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>May 2024</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>June 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Main Babe Only'!$B$2:$B$62</c:f>
+              <c:f>'Arkusz 1'!$B$2:$B$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="61"/>
+                <c:ptCount val="62"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -891,61 +897,64 @@
                   <c:v>905</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>920</c:v>
+                  <c:v>919</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>936</c:v>
+                  <c:v>935</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>963</c:v>
+                  <c:v>962</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>981</c:v>
+                  <c:v>980</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>997</c:v>
+                  <c:v>996</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1014</c:v>
+                  <c:v>1013</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1034</c:v>
+                  <c:v>1033</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1056</c:v>
+                  <c:v>1055</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1097</c:v>
+                  <c:v>1096</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1121</c:v>
+                  <c:v>1120</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1133</c:v>
+                  <c:v>1132</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1145</c:v>
+                  <c:v>1144</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1152</c:v>
+                  <c:v>1151</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1161</c:v>
+                  <c:v>1160</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1171</c:v>
+                  <c:v>1170</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1186</c:v>
+                  <c:v>1185</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1196</c:v>
+                  <c:v>1195</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1202</c:v>
+                  <c:v>1201</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1216</c:v>
+                  <c:v>1215</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -960,11 +969,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="4364978"/>
-        <c:axId val="53933818"/>
+        <c:axId val="83352812"/>
+        <c:axId val="52450251"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="4364978"/>
+        <c:axId val="83352812"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1001,7 +1010,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53933818"/>
+        <c:crossAx val="52450251"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1009,7 +1018,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53933818"/>
+        <c:axId val="52450251"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1046,7 +1055,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4364978"/>
+        <c:crossAx val="83352812"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -1085,9 +1094,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>15120</xdr:colOff>
+      <xdr:colOff>14760</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>138240</xdr:rowOff>
+      <xdr:rowOff>137880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1096,7 +1105,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7665480" y="576000"/>
-        <a:ext cx="15450480" cy="6229800"/>
+        <a:ext cx="15450120" cy="6229440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1114,10 +1123,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F54" activeCellId="0" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1905,11 +1914,11 @@
         <v>71</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C44" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B44,B43)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>69</v>
@@ -1923,7 +1932,7 @@
         <v>72</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C45" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B45,B44)</f>
@@ -1941,7 +1950,7 @@
         <v>73</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C46" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B46,B45)</f>
@@ -1959,7 +1968,7 @@
         <v>75</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C47" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B47,B46)</f>
@@ -1977,7 +1986,7 @@
         <v>76</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C48" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B48,B47)</f>
@@ -1995,7 +2004,7 @@
         <v>77</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C49" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B49,B48)</f>
@@ -2013,7 +2022,7 @@
         <v>78</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C50" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B50,B49)</f>
@@ -2031,7 +2040,7 @@
         <v>79</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C51" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B51,B50)</f>
@@ -2049,7 +2058,7 @@
         <v>80</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C52" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B52,B51)</f>
@@ -2067,7 +2076,7 @@
         <v>81</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C53" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B53,B52)</f>
@@ -2085,7 +2094,7 @@
         <v>82</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C54" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B54,B53)</f>
@@ -2103,7 +2112,7 @@
         <v>83</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C55" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B55,B54)</f>
@@ -2121,7 +2130,7 @@
         <v>84</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C56" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B56,B55)</f>
@@ -2139,7 +2148,7 @@
         <v>85</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C57" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B57,B56)</f>
@@ -2157,7 +2166,7 @@
         <v>86</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C58" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B58,B57)</f>
@@ -2175,7 +2184,7 @@
         <v>88</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C59" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B59,B58)</f>
@@ -2193,7 +2202,7 @@
         <v>90</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C60" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B60,B59)</f>
@@ -2211,7 +2220,7 @@
         <v>92</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C61" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B61,B60)</f>
@@ -2229,7 +2238,7 @@
         <v>93</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C62" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B62,B61)</f>
@@ -2239,6 +2248,24 @@
         <v>91</v>
       </c>
       <c r="E62" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>1223</v>
+      </c>
+      <c r="C63" s="3" t="n">
+        <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B63,B62)</f>
+        <v>8</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>66</v>
       </c>
     </row>

--- a/MB Number of Players/NumberOfPlayers.xlsx
+++ b/MB Number of Players/NumberOfPlayers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="96">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t xml:space="preserve">June 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 2024</t>
   </si>
 </sst>
 </file>
@@ -517,7 +520,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -572,9 +575,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Arkusz 1'!$A$2:$A$63</c:f>
+              <c:f>'Arkusz 1'!$A$2:$A$64</c:f>
               <c:strCache>
-                <c:ptCount val="62"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>May 2019</c:v>
                 </c:pt>
@@ -760,16 +763,19 @@
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>June 2024</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>July 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Arkusz 1'!$B$2:$B$63</c:f>
+              <c:f>'Arkusz 1'!$B$2:$B$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="62"/>
+                <c:ptCount val="63"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -843,118 +849,121 @@
                   <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>410</c:v>
+                  <c:v>409</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>458</c:v>
+                  <c:v>457</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>470</c:v>
+                  <c:v>469</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>489</c:v>
+                  <c:v>488</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>527</c:v>
+                  <c:v>526</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>544</c:v>
+                  <c:v>543</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>554</c:v>
+                  <c:v>553</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>583</c:v>
+                  <c:v>582</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>647</c:v>
+                  <c:v>646</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>689</c:v>
+                  <c:v>688</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>741</c:v>
+                  <c:v>740</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>778</c:v>
+                  <c:v>777</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>812</c:v>
+                  <c:v>811</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>831</c:v>
+                  <c:v>830</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>847</c:v>
+                  <c:v>846</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>859</c:v>
+                  <c:v>858</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>889</c:v>
+                  <c:v>888</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>905</c:v>
+                  <c:v>904</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>919</c:v>
+                  <c:v>918</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>935</c:v>
+                  <c:v>934</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>962</c:v>
+                  <c:v>961</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>980</c:v>
+                  <c:v>979</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>996</c:v>
+                  <c:v>995</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1013</c:v>
+                  <c:v>1012</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1033</c:v>
+                  <c:v>1032</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1055</c:v>
+                  <c:v>1054</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1096</c:v>
+                  <c:v>1095</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1120</c:v>
+                  <c:v>1119</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1132</c:v>
+                  <c:v>1131</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1144</c:v>
+                  <c:v>1143</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1151</c:v>
+                  <c:v>1150</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1160</c:v>
+                  <c:v>1159</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1170</c:v>
+                  <c:v>1169</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1185</c:v>
+                  <c:v>1184</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1195</c:v>
+                  <c:v>1194</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1201</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1215</c:v>
+                  <c:v>1214</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1223</c:v>
+                  <c:v>1222</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -969,11 +978,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="83352812"/>
-        <c:axId val="52450251"/>
+        <c:axId val="48334945"/>
+        <c:axId val="63843075"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83352812"/>
+        <c:axId val="48334945"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1010,7 +1019,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52450251"/>
+        <c:crossAx val="63843075"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1018,7 +1027,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52450251"/>
+        <c:axId val="63843075"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1055,7 +1064,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83352812"/>
+        <c:crossAx val="48334945"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -1094,9 +1103,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>14760</xdr:colOff>
+      <xdr:colOff>14400</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1105,7 +1114,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7665480" y="576000"/>
-        <a:ext cx="15450120" cy="6229440"/>
+        <a:ext cx="15449760" cy="6229080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1123,10 +1132,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F54" activeCellId="0" sqref="F54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E50" activeCellId="0" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1590,11 +1599,11 @@
         <v>46</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>410</v>
-      </c>
-      <c r="C26" s="5" t="n">
+        <v>409</v>
+      </c>
+      <c r="C26" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B26,B25)</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>44</v>
@@ -1608,7 +1617,7 @@
         <v>47</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C27" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B27,B26)</f>
@@ -1626,7 +1635,7 @@
         <v>49</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C28" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B28,B27)</f>
@@ -1644,7 +1653,7 @@
         <v>50</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C29" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B29,B28)</f>
@@ -1662,7 +1671,7 @@
         <v>51</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C30" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B30,B29)</f>
@@ -1680,7 +1689,7 @@
         <v>52</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C31" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B31,B30)</f>
@@ -1698,7 +1707,7 @@
         <v>53</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C32" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B32,B31)</f>
@@ -1716,7 +1725,7 @@
         <v>54</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C33" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B33,B32)</f>
@@ -1734,7 +1743,7 @@
         <v>55</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C34" s="5" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B34,B33)</f>
@@ -1752,7 +1761,7 @@
         <v>56</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C35" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B35,B34)</f>
@@ -1770,7 +1779,7 @@
         <v>57</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C36" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B36,B35)</f>
@@ -1788,7 +1797,7 @@
         <v>58</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C37" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B37,B36)</f>
@@ -1806,7 +1815,7 @@
         <v>61</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C38" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B38,B37)</f>
@@ -1824,7 +1833,7 @@
         <v>63</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C39" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B39,B38)</f>
@@ -1842,7 +1851,7 @@
         <v>64</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C40" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B40,B39)</f>
@@ -1860,7 +1869,7 @@
         <v>67</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C41" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B41,B40)</f>
@@ -1878,7 +1887,7 @@
         <v>68</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C42" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B42,B41)</f>
@@ -1896,7 +1905,7 @@
         <v>70</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C43" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B43,B42)</f>
@@ -1914,7 +1923,7 @@
         <v>71</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C44" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B44,B43)</f>
@@ -1932,7 +1941,7 @@
         <v>72</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C45" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B45,B44)</f>
@@ -1950,7 +1959,7 @@
         <v>73</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C46" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B46,B45)</f>
@@ -1968,7 +1977,7 @@
         <v>75</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C47" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B47,B46)</f>
@@ -1986,7 +1995,7 @@
         <v>76</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C48" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B48,B47)</f>
@@ -2004,7 +2013,7 @@
         <v>77</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C49" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B49,B48)</f>
@@ -2022,7 +2031,7 @@
         <v>78</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C50" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B50,B49)</f>
@@ -2040,7 +2049,7 @@
         <v>79</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C51" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B51,B50)</f>
@@ -2058,7 +2067,7 @@
         <v>80</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C52" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B52,B51)</f>
@@ -2076,7 +2085,7 @@
         <v>81</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C53" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B53,B52)</f>
@@ -2094,7 +2103,7 @@
         <v>82</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C54" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B54,B53)</f>
@@ -2112,7 +2121,7 @@
         <v>83</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C55" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B55,B54)</f>
@@ -2130,7 +2139,7 @@
         <v>84</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C56" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B56,B55)</f>
@@ -2148,7 +2157,7 @@
         <v>85</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C57" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B57,B56)</f>
@@ -2166,7 +2175,7 @@
         <v>86</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C58" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B58,B57)</f>
@@ -2184,7 +2193,7 @@
         <v>88</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C59" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B59,B58)</f>
@@ -2202,7 +2211,7 @@
         <v>90</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C60" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B60,B59)</f>
@@ -2220,7 +2229,7 @@
         <v>92</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C61" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B61,B60)</f>
@@ -2238,7 +2247,7 @@
         <v>93</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C62" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B62,B61)</f>
@@ -2256,7 +2265,7 @@
         <v>94</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C63" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B63,B62)</f>
@@ -2266,6 +2275,24 @@
         <v>91</v>
       </c>
       <c r="E63" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>1234</v>
+      </c>
+      <c r="C64" s="3" t="n">
+        <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B64,B63)</f>
+        <v>12</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>66</v>
       </c>
     </row>

--- a/MB Number of Players/NumberOfPlayers.xlsx
+++ b/MB Number of Players/NumberOfPlayers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="97">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t xml:space="preserve">July 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 2024</t>
   </si>
 </sst>
 </file>
@@ -520,7 +523,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -575,9 +578,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Arkusz 1'!$A$2:$A$64</c:f>
+              <c:f>'Arkusz 1'!$A$2:$A$65</c:f>
               <c:strCache>
-                <c:ptCount val="63"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>May 2019</c:v>
                 </c:pt>
@@ -766,16 +769,19 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>July 2024</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>August 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Arkusz 1'!$B$2:$B$64</c:f>
+              <c:f>'Arkusz 1'!$B$2:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -964,6 +970,9 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>1234</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -978,11 +987,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="48334945"/>
-        <c:axId val="63843075"/>
+        <c:axId val="63349835"/>
+        <c:axId val="52893885"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="48334945"/>
+        <c:axId val="63349835"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1019,7 +1028,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63843075"/>
+        <c:crossAx val="52893885"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1027,7 +1036,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63843075"/>
+        <c:axId val="52893885"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1064,7 +1073,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48334945"/>
+        <c:crossAx val="63349835"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -1103,9 +1112,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>14400</xdr:colOff>
+      <xdr:colOff>14040</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1114,7 +1123,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7665480" y="576000"/>
-        <a:ext cx="15449760" cy="6229080"/>
+        <a:ext cx="15449400" cy="6228720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1132,10 +1141,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E50" activeCellId="0" sqref="E50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2296,6 +2305,24 @@
         <v>66</v>
       </c>
     </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>1250</v>
+      </c>
+      <c r="C65" s="3" t="n">
+        <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B65,B64)</f>
+        <v>16</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/MB Number of Players/NumberOfPlayers.xlsx
+++ b/MB Number of Players/NumberOfPlayers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="98">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t xml:space="preserve">August 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 2024</t>
   </si>
 </sst>
 </file>
@@ -523,7 +526,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -578,9 +581,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Arkusz 1'!$A$2:$A$65</c:f>
+              <c:f>'Arkusz 1'!$A$2:$A$66</c:f>
               <c:strCache>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>May 2019</c:v>
                 </c:pt>
@@ -772,16 +775,19 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>August 2024</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>September 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Arkusz 1'!$B$2:$B$65</c:f>
+              <c:f>'Arkusz 1'!$B$2:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -973,6 +979,9 @@
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1254</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -987,11 +996,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="63349835"/>
-        <c:axId val="52893885"/>
+        <c:axId val="24779629"/>
+        <c:axId val="2360093"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="63349835"/>
+        <c:axId val="24779629"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1028,7 +1037,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52893885"/>
+        <c:crossAx val="2360093"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1036,7 +1045,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52893885"/>
+        <c:axId val="2360093"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1073,7 +1082,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63349835"/>
+        <c:crossAx val="24779629"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -1112,9 +1121,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>14040</xdr:colOff>
+      <xdr:colOff>13680</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1123,7 +1132,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7665480" y="576000"/>
-        <a:ext cx="15449400" cy="6228720"/>
+        <a:ext cx="15449040" cy="6228360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1141,10 +1150,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="B68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2323,6 +2332,27 @@
         <v>66</v>
       </c>
     </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>1254</v>
+      </c>
+      <c r="C66" s="3" t="n">
+        <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B66,B65)</f>
+        <v>4</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E67" s="0"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/MB Number of Players/NumberOfPlayers.xlsx
+++ b/MB Number of Players/NumberOfPlayers.xlsx
@@ -526,7 +526,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -900,88 +900,88 @@
                   <c:v>811</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>830</c:v>
+                  <c:v>829</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>846</c:v>
+                  <c:v>845</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>858</c:v>
+                  <c:v>857</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>888</c:v>
+                  <c:v>887</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>904</c:v>
+                  <c:v>903</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>918</c:v>
+                  <c:v>917</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>934</c:v>
+                  <c:v>933</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>961</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>979</c:v>
+                  <c:v>978</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>995</c:v>
+                  <c:v>994</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1012</c:v>
+                  <c:v>1011</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1032</c:v>
+                  <c:v>1031</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1054</c:v>
+                  <c:v>1053</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1095</c:v>
+                  <c:v>1094</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1119</c:v>
+                  <c:v>1118</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1131</c:v>
+                  <c:v>1130</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1143</c:v>
+                  <c:v>1142</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1150</c:v>
+                  <c:v>1149</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1159</c:v>
+                  <c:v>1158</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1169</c:v>
+                  <c:v>1168</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1184</c:v>
+                  <c:v>1183</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1194</c:v>
+                  <c:v>1193</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1200</c:v>
+                  <c:v>1199</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1214</c:v>
+                  <c:v>1213</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1222</c:v>
+                  <c:v>1221</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1234</c:v>
+                  <c:v>1233</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1250</c:v>
+                  <c:v>1249</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1254</c:v>
+                  <c:v>1253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -996,11 +996,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="24779629"/>
-        <c:axId val="2360093"/>
+        <c:axId val="64702313"/>
+        <c:axId val="39720803"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="24779629"/>
+        <c:axId val="64702313"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1037,7 +1037,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2360093"/>
+        <c:crossAx val="39720803"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1045,7 +1045,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2360093"/>
+        <c:axId val="39720803"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1082,7 +1082,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24779629"/>
+        <c:crossAx val="64702313"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -1121,9 +1121,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>13680</xdr:colOff>
+      <xdr:colOff>13320</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>136800</xdr:rowOff>
+      <xdr:rowOff>136440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1132,7 +1132,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7665480" y="576000"/>
-        <a:ext cx="15449040" cy="6228360"/>
+        <a:ext cx="15448680" cy="6228000"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1152,8 +1152,8 @@
   </sheetPr>
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1851,11 +1851,11 @@
         <v>63</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C39" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B39,B38)</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>62</v>
@@ -1869,7 +1869,7 @@
         <v>64</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C40" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B40,B39)</f>
@@ -1887,7 +1887,7 @@
         <v>67</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C41" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B41,B40)</f>
@@ -1905,7 +1905,7 @@
         <v>68</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C42" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B42,B41)</f>
@@ -1923,7 +1923,7 @@
         <v>70</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C43" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B43,B42)</f>
@@ -1941,7 +1941,7 @@
         <v>71</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C44" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B44,B43)</f>
@@ -1959,7 +1959,7 @@
         <v>72</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C45" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B45,B44)</f>
@@ -1977,7 +1977,7 @@
         <v>73</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C46" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B46,B45)</f>
@@ -1995,7 +1995,7 @@
         <v>75</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C47" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B47,B46)</f>
@@ -2013,7 +2013,7 @@
         <v>76</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C48" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B48,B47)</f>
@@ -2031,7 +2031,7 @@
         <v>77</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C49" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B49,B48)</f>
@@ -2049,7 +2049,7 @@
         <v>78</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C50" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B50,B49)</f>
@@ -2067,7 +2067,7 @@
         <v>79</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C51" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B51,B50)</f>
@@ -2085,7 +2085,7 @@
         <v>80</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C52" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B52,B51)</f>
@@ -2103,7 +2103,7 @@
         <v>81</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C53" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B53,B52)</f>
@@ -2121,7 +2121,7 @@
         <v>82</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C54" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B54,B53)</f>
@@ -2139,7 +2139,7 @@
         <v>83</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C55" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B55,B54)</f>
@@ -2157,7 +2157,7 @@
         <v>84</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C56" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B56,B55)</f>
@@ -2175,7 +2175,7 @@
         <v>85</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C57" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B57,B56)</f>
@@ -2193,7 +2193,7 @@
         <v>86</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C58" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B58,B57)</f>
@@ -2211,7 +2211,7 @@
         <v>88</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C59" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B59,B58)</f>
@@ -2229,7 +2229,7 @@
         <v>90</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C60" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B60,B59)</f>
@@ -2247,7 +2247,7 @@
         <v>92</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C61" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B61,B60)</f>
@@ -2265,7 +2265,7 @@
         <v>93</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C62" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B62,B61)</f>
@@ -2283,7 +2283,7 @@
         <v>94</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C63" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B63,B62)</f>
@@ -2301,7 +2301,7 @@
         <v>95</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C64" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B64,B63)</f>
@@ -2319,7 +2319,7 @@
         <v>96</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C65" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B65,B64)</f>
@@ -2337,7 +2337,7 @@
         <v>97</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C66" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B66,B65)</f>
@@ -2350,9 +2350,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E67" s="0"/>
-    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/MB Number of Players/NumberOfPlayers.xlsx
+++ b/MB Number of Players/NumberOfPlayers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="100">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -314,6 +314,12 @@
   </si>
   <si>
     <t xml:space="preserve">September 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:59.666</t>
   </si>
 </sst>
 </file>
@@ -526,7 +532,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -581,9 +587,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Arkusz 1'!$A$2:$A$66</c:f>
+              <c:f>'Arkusz 1'!$A$2:$A$67</c:f>
               <c:strCache>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>May 2019</c:v>
                 </c:pt>
@@ -778,16 +784,19 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>September 2024</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>October 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Arkusz 1'!$B$2:$B$66</c:f>
+              <c:f>'Arkusz 1'!$B$2:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="65"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -909,79 +918,82 @@
                   <c:v>857</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>887</c:v>
+                  <c:v>886</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>903</c:v>
+                  <c:v>902</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>917</c:v>
+                  <c:v>916</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>933</c:v>
+                  <c:v>932</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>960</c:v>
+                  <c:v>959</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>978</c:v>
+                  <c:v>977</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>994</c:v>
+                  <c:v>993</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1011</c:v>
+                  <c:v>1010</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1031</c:v>
+                  <c:v>1030</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1053</c:v>
+                  <c:v>1052</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1094</c:v>
+                  <c:v>1093</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1118</c:v>
+                  <c:v>1117</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1130</c:v>
+                  <c:v>1129</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1142</c:v>
+                  <c:v>1141</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1149</c:v>
+                  <c:v>1148</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1158</c:v>
+                  <c:v>1157</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1168</c:v>
+                  <c:v>1167</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1183</c:v>
+                  <c:v>1182</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1193</c:v>
+                  <c:v>1192</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1199</c:v>
+                  <c:v>1198</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1213</c:v>
+                  <c:v>1211</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1221</c:v>
+                  <c:v>1220</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1233</c:v>
+                  <c:v>1232</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1249</c:v>
+                  <c:v>1248</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1253</c:v>
+                  <c:v>1252</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1270</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -996,11 +1008,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="64702313"/>
-        <c:axId val="39720803"/>
+        <c:axId val="33160937"/>
+        <c:axId val="35161784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64702313"/>
+        <c:axId val="33160937"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1037,7 +1049,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39720803"/>
+        <c:crossAx val="35161784"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1045,7 +1057,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39720803"/>
+        <c:axId val="35161784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1082,7 +1094,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64702313"/>
+        <c:crossAx val="33160937"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -1121,9 +1133,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>13320</xdr:colOff>
+      <xdr:colOff>12960</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>136440</xdr:rowOff>
+      <xdr:rowOff>136080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1132,7 +1144,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7665480" y="576000"/>
-        <a:ext cx="15448680" cy="6228000"/>
+        <a:ext cx="15448320" cy="6227640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1152,8 +1164,8 @@
   </sheetPr>
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1905,11 +1917,11 @@
         <v>68</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C42" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B42,B41)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>69</v>
@@ -1923,7 +1935,7 @@
         <v>70</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C43" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B43,B42)</f>
@@ -1941,7 +1953,7 @@
         <v>71</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C44" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B44,B43)</f>
@@ -1959,7 +1971,7 @@
         <v>72</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C45" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B45,B44)</f>
@@ -1977,7 +1989,7 @@
         <v>73</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C46" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B46,B45)</f>
@@ -1995,7 +2007,7 @@
         <v>75</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C47" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B47,B46)</f>
@@ -2013,7 +2025,7 @@
         <v>76</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C48" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B48,B47)</f>
@@ -2031,7 +2043,7 @@
         <v>77</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C49" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B49,B48)</f>
@@ -2049,7 +2061,7 @@
         <v>78</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C50" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B50,B49)</f>
@@ -2067,7 +2079,7 @@
         <v>79</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C51" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B51,B50)</f>
@@ -2085,7 +2097,7 @@
         <v>80</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C52" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B52,B51)</f>
@@ -2103,7 +2115,7 @@
         <v>81</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C53" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B53,B52)</f>
@@ -2121,7 +2133,7 @@
         <v>82</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C54" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B54,B53)</f>
@@ -2139,7 +2151,7 @@
         <v>83</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C55" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B55,B54)</f>
@@ -2157,7 +2169,7 @@
         <v>84</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C56" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B56,B55)</f>
@@ -2175,7 +2187,7 @@
         <v>85</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C57" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B57,B56)</f>
@@ -2193,7 +2205,7 @@
         <v>86</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C58" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B58,B57)</f>
@@ -2211,7 +2223,7 @@
         <v>88</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C59" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B59,B58)</f>
@@ -2229,7 +2241,7 @@
         <v>90</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C60" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B60,B59)</f>
@@ -2247,7 +2259,7 @@
         <v>92</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C61" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B61,B60)</f>
@@ -2265,11 +2277,11 @@
         <v>93</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C62" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B62,B61)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>91</v>
@@ -2283,11 +2295,11 @@
         <v>94</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C63" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B63,B62)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>91</v>
@@ -2301,7 +2313,7 @@
         <v>95</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C64" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B64,B63)</f>
@@ -2319,7 +2331,7 @@
         <v>96</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C65" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B65,B64)</f>
@@ -2337,7 +2349,7 @@
         <v>97</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C66" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B66,B65)</f>
@@ -2350,7 +2362,24 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>1270</v>
+      </c>
+      <c r="C67" s="3" t="n">
+        <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B67,B66)</f>
+        <v>18</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/MB Number of Players/NumberOfPlayers.xlsx
+++ b/MB Number of Players/NumberOfPlayers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="103">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -320,6 +320,15 @@
   </si>
   <si>
     <t xml:space="preserve">3:59.666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:59.649</t>
   </si>
 </sst>
 </file>
@@ -532,7 +541,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -587,9 +596,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Arkusz 1'!$A$2:$A$67</c:f>
+              <c:f>'Arkusz 1'!$A$2:$A$69</c:f>
               <c:strCache>
-                <c:ptCount val="66"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>May 2019</c:v>
                 </c:pt>
@@ -787,16 +796,22 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>October 2024</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>November 2024</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>December 2024</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Arkusz 1'!$B$2:$B$67</c:f>
+              <c:f>'Arkusz 1'!$B$2:$B$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="66"/>
+                <c:ptCount val="68"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -888,112 +903,118 @@
                   <c:v>543</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>553</c:v>
+                  <c:v>552</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>582</c:v>
+                  <c:v>581</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>646</c:v>
+                  <c:v>645</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>688</c:v>
+                  <c:v>687</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>740</c:v>
+                  <c:v>739</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>777</c:v>
+                  <c:v>776</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>811</c:v>
+                  <c:v>810</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>829</c:v>
+                  <c:v>828</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>845</c:v>
+                  <c:v>844</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>857</c:v>
+                  <c:v>856</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>886</c:v>
+                  <c:v>885</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>902</c:v>
+                  <c:v>901</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>916</c:v>
+                  <c:v>915</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>932</c:v>
+                  <c:v>931</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>959</c:v>
+                  <c:v>958</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>977</c:v>
+                  <c:v>976</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>993</c:v>
+                  <c:v>992</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1010</c:v>
+                  <c:v>1009</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1030</c:v>
+                  <c:v>1029</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1052</c:v>
+                  <c:v>1051</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1093</c:v>
+                  <c:v>1092</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1117</c:v>
+                  <c:v>1116</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1129</c:v>
+                  <c:v>1128</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1141</c:v>
+                  <c:v>1140</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1148</c:v>
+                  <c:v>1147</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1157</c:v>
+                  <c:v>1156</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1167</c:v>
+                  <c:v>1166</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1182</c:v>
+                  <c:v>1181</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1192</c:v>
+                  <c:v>1191</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1198</c:v>
+                  <c:v>1197</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1211</c:v>
+                  <c:v>1210</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1220</c:v>
+                  <c:v>1219</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1232</c:v>
+                  <c:v>1231</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1248</c:v>
+                  <c:v>1247</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1252</c:v>
+                  <c:v>1251</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1270</c:v>
+                  <c:v>1268</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1278</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1008,11 +1029,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="33160937"/>
-        <c:axId val="35161784"/>
+        <c:axId val="98417846"/>
+        <c:axId val="20584983"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="33160937"/>
+        <c:axId val="98417846"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1049,7 +1070,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="35161784"/>
+        <c:crossAx val="20584983"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1057,7 +1078,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="35161784"/>
+        <c:axId val="20584983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,7 +1115,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33160937"/>
+        <c:crossAx val="98417846"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -1126,16 +1147,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>7920</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1358640</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>12960</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>136080</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>784800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1143,8 +1164,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7665480" y="576000"/>
-        <a:ext cx="15448320" cy="6227640"/>
+        <a:off x="7652160" y="415800"/>
+        <a:ext cx="15420600" cy="6217200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1162,10 +1183,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C60" activeCellId="0" sqref="C60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C6" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1737,11 +1758,11 @@
         <v>53</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C32" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B32,B31)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>48</v>
@@ -1755,7 +1776,7 @@
         <v>54</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C33" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B33,B32)</f>
@@ -1773,7 +1794,7 @@
         <v>55</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C34" s="5" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B34,B33)</f>
@@ -1791,7 +1812,7 @@
         <v>56</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C35" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B35,B34)</f>
@@ -1809,7 +1830,7 @@
         <v>57</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C36" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B36,B35)</f>
@@ -1827,7 +1848,7 @@
         <v>58</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C37" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B37,B36)</f>
@@ -1845,7 +1866,7 @@
         <v>61</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C38" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B38,B37)</f>
@@ -1863,7 +1884,7 @@
         <v>63</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C39" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B39,B38)</f>
@@ -1881,7 +1902,7 @@
         <v>64</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C40" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B40,B39)</f>
@@ -1899,7 +1920,7 @@
         <v>67</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C41" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B41,B40)</f>
@@ -1917,7 +1938,7 @@
         <v>68</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C42" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B42,B41)</f>
@@ -1935,7 +1956,7 @@
         <v>70</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C43" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B43,B42)</f>
@@ -1953,7 +1974,7 @@
         <v>71</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C44" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B44,B43)</f>
@@ -1971,7 +1992,7 @@
         <v>72</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C45" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B45,B44)</f>
@@ -1989,7 +2010,7 @@
         <v>73</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C46" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B46,B45)</f>
@@ -2007,7 +2028,7 @@
         <v>75</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C47" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B47,B46)</f>
@@ -2025,7 +2046,7 @@
         <v>76</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C48" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B48,B47)</f>
@@ -2043,7 +2064,7 @@
         <v>77</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C49" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B49,B48)</f>
@@ -2061,7 +2082,7 @@
         <v>78</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C50" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B50,B49)</f>
@@ -2079,7 +2100,7 @@
         <v>79</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C51" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B51,B50)</f>
@@ -2097,7 +2118,7 @@
         <v>80</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C52" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B52,B51)</f>
@@ -2115,7 +2136,7 @@
         <v>81</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C53" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B53,B52)</f>
@@ -2133,7 +2154,7 @@
         <v>82</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C54" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B54,B53)</f>
@@ -2151,7 +2172,7 @@
         <v>83</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C55" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B55,B54)</f>
@@ -2169,7 +2190,7 @@
         <v>84</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C56" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B56,B55)</f>
@@ -2187,7 +2208,7 @@
         <v>85</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C57" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B57,B56)</f>
@@ -2205,7 +2226,7 @@
         <v>86</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C58" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B58,B57)</f>
@@ -2223,7 +2244,7 @@
         <v>88</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C59" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B59,B58)</f>
@@ -2241,7 +2262,7 @@
         <v>90</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C60" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B60,B59)</f>
@@ -2259,7 +2280,7 @@
         <v>92</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C61" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B61,B60)</f>
@@ -2277,7 +2298,7 @@
         <v>93</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C62" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B62,B61)</f>
@@ -2295,7 +2316,7 @@
         <v>94</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C63" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B63,B62)</f>
@@ -2313,7 +2334,7 @@
         <v>95</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C64" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B64,B63)</f>
@@ -2331,7 +2352,7 @@
         <v>96</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C65" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B65,B64)</f>
@@ -2349,7 +2370,7 @@
         <v>97</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C66" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B66,B65)</f>
@@ -2367,16 +2388,52 @@
         <v>98</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C67" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B67,B66)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>99</v>
       </c>
       <c r="E67" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>1278</v>
+      </c>
+      <c r="C68" s="3" t="n">
+        <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B68,B67)</f>
+        <v>10</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>1293</v>
+      </c>
+      <c r="C69" s="3" t="n">
+        <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B69,B68)</f>
+        <v>15</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>60</v>
       </c>
     </row>

--- a/MB Number of Players/NumberOfPlayers.xlsx
+++ b/MB Number of Players/NumberOfPlayers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="106">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -329,6 +329,15 @@
   </si>
   <si>
     <t xml:space="preserve">3:59.649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 2025</t>
   </si>
 </sst>
 </file>
@@ -541,7 +550,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -596,9 +605,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Arkusz 1'!$A$2:$A$69</c:f>
+              <c:f>'Arkusz 1'!$A$2:$A$72</c:f>
               <c:strCache>
-                <c:ptCount val="68"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>May 2019</c:v>
                 </c:pt>
@@ -802,16 +811,25 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>December 2024</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>January 2025</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>February 2025</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>March 2025</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Arkusz 1'!$B$2:$B$69</c:f>
+              <c:f>'Arkusz 1'!$B$2:$B$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -903,118 +921,127 @@
                   <c:v>543</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>552</c:v>
+                  <c:v>551</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>581</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>645</c:v>
+                  <c:v>644</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>687</c:v>
+                  <c:v>686</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>739</c:v>
+                  <c:v>738</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>776</c:v>
+                  <c:v>775</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>810</c:v>
+                  <c:v>809</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>828</c:v>
+                  <c:v>827</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>844</c:v>
+                  <c:v>843</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>856</c:v>
+                  <c:v>855</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>885</c:v>
+                  <c:v>884</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>901</c:v>
+                  <c:v>889</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>915</c:v>
+                  <c:v>913</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>931</c:v>
+                  <c:v>929</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>958</c:v>
+                  <c:v>956</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>976</c:v>
+                  <c:v>973</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>992</c:v>
+                  <c:v>989</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1009</c:v>
+                  <c:v>1006</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1029</c:v>
+                  <c:v>1026</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1051</c:v>
+                  <c:v>1048</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1092</c:v>
+                  <c:v>1089</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1116</c:v>
+                  <c:v>1113</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1128</c:v>
+                  <c:v>1125</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1140</c:v>
+                  <c:v>1137</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1147</c:v>
+                  <c:v>1144</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1156</c:v>
+                  <c:v>1153</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1166</c:v>
+                  <c:v>1163</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1181</c:v>
+                  <c:v>1178</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1191</c:v>
+                  <c:v>1188</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1197</c:v>
+                  <c:v>1194</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1210</c:v>
+                  <c:v>1207</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1219</c:v>
+                  <c:v>1216</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1231</c:v>
+                  <c:v>1228</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1247</c:v>
+                  <c:v>1244</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1251</c:v>
+                  <c:v>1248</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1268</c:v>
+                  <c:v>1265</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1278</c:v>
+                  <c:v>1275</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1293</c:v>
+                  <c:v>1290</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1302</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1309</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1029,11 +1056,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="98417846"/>
-        <c:axId val="20584983"/>
+        <c:axId val="93654053"/>
+        <c:axId val="77831128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98417846"/>
+        <c:axId val="93654053"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +1097,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20584983"/>
+        <c:crossAx val="77831128"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1078,7 +1105,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="20584983"/>
+        <c:axId val="77831128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1115,7 +1142,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98417846"/>
+        <c:crossAx val="93654053"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -1154,9 +1181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>784800</xdr:colOff>
+      <xdr:colOff>784440</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>155520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1165,7 +1192,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7652160" y="415800"/>
-        <a:ext cx="15420600" cy="6217200"/>
+        <a:ext cx="15420240" cy="6216840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1183,10 +1210,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C6" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H3" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B73" activeCellId="0" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1758,11 +1785,11 @@
         <v>53</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C32" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B32,B31)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>48</v>
@@ -1776,7 +1803,7 @@
         <v>54</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C33" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B33,B32)</f>
@@ -1794,7 +1821,7 @@
         <v>55</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C34" s="5" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B34,B33)</f>
@@ -1812,7 +1839,7 @@
         <v>56</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C35" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B35,B34)</f>
@@ -1830,7 +1857,7 @@
         <v>57</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C36" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B36,B35)</f>
@@ -1848,7 +1875,7 @@
         <v>58</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C37" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B37,B36)</f>
@@ -1866,7 +1893,7 @@
         <v>61</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C38" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B38,B37)</f>
@@ -1884,7 +1911,7 @@
         <v>63</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C39" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B39,B38)</f>
@@ -1902,7 +1929,7 @@
         <v>64</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C40" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B40,B39)</f>
@@ -1920,7 +1947,7 @@
         <v>67</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C41" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B41,B40)</f>
@@ -1938,7 +1965,7 @@
         <v>68</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C42" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B42,B41)</f>
@@ -1956,11 +1983,11 @@
         <v>70</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="C43" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B43,B42)</f>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>69</v>
@@ -1974,11 +2001,11 @@
         <v>71</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C44" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B44,B43)</f>
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>69</v>
@@ -1992,7 +2019,7 @@
         <v>72</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C45" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B45,B44)</f>
@@ -2010,7 +2037,7 @@
         <v>73</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C46" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B46,B45)</f>
@@ -2028,11 +2055,11 @@
         <v>75</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="C47" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B47,B46)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>74</v>
@@ -2046,7 +2073,7 @@
         <v>76</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C48" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B48,B47)</f>
@@ -2064,7 +2091,7 @@
         <v>77</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C49" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B49,B48)</f>
@@ -2082,7 +2109,7 @@
         <v>78</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C50" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B50,B49)</f>
@@ -2100,7 +2127,7 @@
         <v>79</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C51" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B51,B50)</f>
@@ -2118,7 +2145,7 @@
         <v>80</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="C52" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B52,B51)</f>
@@ -2136,7 +2163,7 @@
         <v>81</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="C53" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B53,B52)</f>
@@ -2154,7 +2181,7 @@
         <v>82</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="C54" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B54,B53)</f>
@@ -2172,7 +2199,7 @@
         <v>83</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="C55" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B55,B54)</f>
@@ -2190,7 +2217,7 @@
         <v>84</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C56" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B56,B55)</f>
@@ -2208,7 +2235,7 @@
         <v>85</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="C57" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B57,B56)</f>
@@ -2226,7 +2253,7 @@
         <v>86</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C58" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B58,B57)</f>
@@ -2244,7 +2271,7 @@
         <v>88</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C59" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B59,B58)</f>
@@ -2262,7 +2289,7 @@
         <v>90</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="C60" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B60,B59)</f>
@@ -2280,7 +2307,7 @@
         <v>92</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C61" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B61,B60)</f>
@@ -2298,7 +2325,7 @@
         <v>93</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="C62" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B62,B61)</f>
@@ -2316,7 +2343,7 @@
         <v>94</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="C63" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B63,B62)</f>
@@ -2334,7 +2361,7 @@
         <v>95</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="C64" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B64,B63)</f>
@@ -2352,7 +2379,7 @@
         <v>96</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="C65" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B65,B64)</f>
@@ -2370,7 +2397,7 @@
         <v>97</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="C66" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B66,B65)</f>
@@ -2388,7 +2415,7 @@
         <v>98</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="C67" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B67,B66)</f>
@@ -2406,7 +2433,7 @@
         <v>100</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="C68" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B68,B67)</f>
@@ -2424,7 +2451,7 @@
         <v>101</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C69" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B69,B68)</f>
@@ -2436,6 +2463,67 @@
       <c r="E69" s="3" t="s">
         <v>60</v>
       </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>1302</v>
+      </c>
+      <c r="C70" s="3" t="n">
+        <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B70,B69)</f>
+        <v>12</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>1309</v>
+      </c>
+      <c r="C71" s="3" t="n">
+        <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B71,B70)</f>
+        <v>7</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>1319</v>
+      </c>
+      <c r="C72" s="3" t="n">
+        <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B72,B71)</f>
+        <v>10</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0"/>
+      <c r="B73" s="0"/>
+      <c r="C73" s="0"/>
+      <c r="D73" s="0"/>
+      <c r="E73" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/MB Number of Players/NumberOfPlayers.xlsx
+++ b/MB Number of Players/NumberOfPlayers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="107">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t xml:space="preserve">March 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 2025</t>
   </si>
 </sst>
 </file>
@@ -550,7 +553,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -605,9 +608,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Arkusz 1'!$A$2:$A$72</c:f>
+              <c:f>'Arkusz 1'!$A$2:$A$73</c:f>
               <c:strCache>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>May 2019</c:v>
                 </c:pt>
@@ -820,16 +823,19 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>March 2025</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>April 2025</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Arkusz 1'!$B$2:$B$72</c:f>
+              <c:f>'Arkusz 1'!$B$2:$B$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -1042,6 +1048,9 @@
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>1319</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1056,11 +1065,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="93654053"/>
-        <c:axId val="77831128"/>
+        <c:axId val="73024618"/>
+        <c:axId val="65369239"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93654053"/>
+        <c:axId val="73024618"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1097,7 +1106,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77831128"/>
+        <c:crossAx val="65369239"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1105,7 +1114,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77831128"/>
+        <c:axId val="65369239"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1142,7 +1151,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93654053"/>
+        <c:crossAx val="73024618"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -1181,9 +1190,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>784440</xdr:colOff>
+      <xdr:colOff>784080</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1192,7 +1201,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7652160" y="415800"/>
-        <a:ext cx="15420240" cy="6216840"/>
+        <a:ext cx="15419880" cy="6216480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1213,7 +1222,7 @@
   <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H3" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B73" activeCellId="0" sqref="B73"/>
+      <selection pane="topLeft" activeCell="D61" activeCellId="0" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2519,11 +2528,22 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0"/>
-      <c r="B73" s="0"/>
-      <c r="C73" s="0"/>
-      <c r="D73" s="0"/>
-      <c r="E73" s="0"/>
+      <c r="A73" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>1324</v>
+      </c>
+      <c r="C73" s="3" t="n">
+        <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B73,B72)</f>
+        <v>5</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/MB Number of Players/NumberOfPlayers.xlsx
+++ b/MB Number of Players/NumberOfPlayers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="108">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t xml:space="preserve">April 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2025</t>
   </si>
 </sst>
 </file>
@@ -553,7 +556,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -608,9 +611,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Arkusz 1'!$A$2:$A$73</c:f>
+              <c:f>'Arkusz 1'!$A$2:$A$74</c:f>
               <c:strCache>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>May 2019</c:v>
                 </c:pt>
@@ -826,16 +829,19 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>April 2025</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>May 2025</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Arkusz 1'!$B$2:$B$73</c:f>
+              <c:f>'Arkusz 1'!$B$2:$B$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -993,64 +999,67 @@
                   <c:v>1113</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1125</c:v>
+                  <c:v>1124</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1137</c:v>
+                  <c:v>1136</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1144</c:v>
+                  <c:v>1143</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1153</c:v>
+                  <c:v>1152</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1163</c:v>
+                  <c:v>1162</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1178</c:v>
+                  <c:v>1177</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1188</c:v>
+                  <c:v>1187</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1194</c:v>
+                  <c:v>1193</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1207</c:v>
+                  <c:v>1206</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1216</c:v>
+                  <c:v>1215</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1228</c:v>
+                  <c:v>1227</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1244</c:v>
+                  <c:v>1243</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1248</c:v>
+                  <c:v>1247</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1265</c:v>
+                  <c:v>1264</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1275</c:v>
+                  <c:v>1274</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1290</c:v>
+                  <c:v>1289</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1302</c:v>
+                  <c:v>1301</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1309</c:v>
+                  <c:v>1308</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1319</c:v>
+                  <c:v>1318</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1324</c:v>
+                  <c:v>1323</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1065,11 +1074,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="73024618"/>
-        <c:axId val="65369239"/>
+        <c:axId val="52906394"/>
+        <c:axId val="14274174"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73024618"/>
+        <c:axId val="52906394"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,7 +1115,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65369239"/>
+        <c:crossAx val="14274174"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1114,7 +1123,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65369239"/>
+        <c:axId val="14274174"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1160,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="73024618"/>
+        <c:crossAx val="52906394"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -1190,9 +1199,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>784080</xdr:colOff>
+      <xdr:colOff>783720</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1201,7 +1210,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7652160" y="415800"/>
-        <a:ext cx="15419880" cy="6216480"/>
+        <a:ext cx="15419520" cy="6216120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1219,10 +1228,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H3" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D61" activeCellId="0" sqref="D61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C75" activeCellId="0" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2190,11 +2199,11 @@
         <v>82</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C54" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B54,B53)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>74</v>
@@ -2208,7 +2217,7 @@
         <v>83</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C55" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B55,B54)</f>
@@ -2226,7 +2235,7 @@
         <v>84</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C56" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B56,B55)</f>
@@ -2244,7 +2253,7 @@
         <v>85</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C57" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B57,B56)</f>
@@ -2262,7 +2271,7 @@
         <v>86</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C58" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B58,B57)</f>
@@ -2280,7 +2289,7 @@
         <v>88</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C59" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B59,B58)</f>
@@ -2298,7 +2307,7 @@
         <v>90</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C60" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B60,B59)</f>
@@ -2316,7 +2325,7 @@
         <v>92</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C61" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B61,B60)</f>
@@ -2334,7 +2343,7 @@
         <v>93</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C62" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B62,B61)</f>
@@ -2352,7 +2361,7 @@
         <v>94</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C63" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B63,B62)</f>
@@ -2370,7 +2379,7 @@
         <v>95</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C64" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B64,B63)</f>
@@ -2388,7 +2397,7 @@
         <v>96</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C65" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B65,B64)</f>
@@ -2406,7 +2415,7 @@
         <v>97</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C66" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B66,B65)</f>
@@ -2424,7 +2433,7 @@
         <v>98</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C67" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B67,B66)</f>
@@ -2442,7 +2451,7 @@
         <v>100</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C68" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B68,B67)</f>
@@ -2460,7 +2469,7 @@
         <v>101</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C69" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B69,B68)</f>
@@ -2478,7 +2487,7 @@
         <v>103</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C70" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B70,B69)</f>
@@ -2496,7 +2505,7 @@
         <v>104</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="C71" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B71,B70)</f>
@@ -2514,7 +2523,7 @@
         <v>105</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="C72" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B72,B71)</f>
@@ -2532,7 +2541,7 @@
         <v>106</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C73" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B73,B72)</f>
@@ -2542,6 +2551,24 @@
         <v>102</v>
       </c>
       <c r="E73" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>1327</v>
+      </c>
+      <c r="C74" s="3" t="n">
+        <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B74,B73)</f>
+        <v>4</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>60</v>
       </c>
     </row>

--- a/MB Number of Players/NumberOfPlayers.xlsx
+++ b/MB Number of Players/NumberOfPlayers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="111">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -344,6 +344,15 @@
   </si>
   <si>
     <t xml:space="preserve">May 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:59.598</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanyeah</t>
   </si>
 </sst>
 </file>
@@ -556,7 +565,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -611,9 +620,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Arkusz 1'!$A$2:$A$74</c:f>
+              <c:f>'Arkusz 1'!$A$2:$A$75</c:f>
               <c:strCache>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>May 2019</c:v>
                 </c:pt>
@@ -832,16 +841,19 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>May 2025</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>June 2025</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Arkusz 1'!$B$2:$B$74</c:f>
+              <c:f>'Arkusz 1'!$B$2:$B$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="73"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -1044,22 +1056,25 @@
                   <c:v>1274</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1289</c:v>
+                  <c:v>1288</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1301</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1308</c:v>
+                  <c:v>1307</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1318</c:v>
+                  <c:v>1317</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1323</c:v>
+                  <c:v>1322</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1327</c:v>
+                  <c:v>1326</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1074,11 +1089,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="52906394"/>
-        <c:axId val="14274174"/>
+        <c:axId val="38484455"/>
+        <c:axId val="93627614"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52906394"/>
+        <c:axId val="38484455"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1115,7 +1130,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="14274174"/>
+        <c:crossAx val="93627614"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1123,7 +1138,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14274174"/>
+        <c:axId val="93627614"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1160,7 +1175,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52906394"/>
+        <c:crossAx val="38484455"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -1199,9 +1214,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>783720</xdr:colOff>
+      <xdr:colOff>783360</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1210,7 +1225,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7652160" y="415800"/>
-        <a:ext cx="15419520" cy="6216120"/>
+        <a:ext cx="15419160" cy="6215760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1228,10 +1243,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C75" activeCellId="0" sqref="C75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B76" activeCellId="0" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2469,11 +2484,11 @@
         <v>101</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C69" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B69,B68)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>102</v>
@@ -2487,7 +2502,7 @@
         <v>103</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C70" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B70,B69)</f>
@@ -2505,7 +2520,7 @@
         <v>104</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="C71" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B71,B70)</f>
@@ -2523,7 +2538,7 @@
         <v>105</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="C72" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B72,B71)</f>
@@ -2541,7 +2556,7 @@
         <v>106</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="C73" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B73,B72)</f>
@@ -2559,7 +2574,7 @@
         <v>107</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C74" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B74,B73)</f>
@@ -2570,6 +2585,24 @@
       </c>
       <c r="E74" s="3" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B75" s="3" t="n">
+        <v>1333</v>
+      </c>
+      <c r="C75" s="3" t="n">
+        <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B75,B74)</f>
+        <v>7</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/MB Number of Players/NumberOfPlayers.xlsx
+++ b/MB Number of Players/NumberOfPlayers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="112">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t xml:space="preserve">Hanyeah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 2025</t>
   </si>
 </sst>
 </file>
@@ -565,7 +568,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -620,9 +623,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Arkusz 1'!$A$2:$A$75</c:f>
+              <c:f>'Arkusz 1'!$A$2:$A$76</c:f>
               <c:strCache>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>May 2019</c:v>
                 </c:pt>
@@ -844,16 +847,19 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>June 2025</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>July 2025</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Arkusz 1'!$B$2:$B$75</c:f>
+              <c:f>'Arkusz 1'!$B$2:$B$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="74"/>
+                <c:ptCount val="75"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -897,184 +903,187 @@
                   <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>196</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>219</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>234</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>247</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>260</c:v>
+                  <c:v>259</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>272</c:v>
+                  <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>301</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>317</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>335</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>346</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>409</c:v>
+                  <c:v>408</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>457</c:v>
+                  <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>469</c:v>
+                  <c:v>468</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>488</c:v>
+                  <c:v>487</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>526</c:v>
+                  <c:v>525</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>543</c:v>
+                  <c:v>542</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>551</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>580</c:v>
+                  <c:v>579</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>644</c:v>
+                  <c:v>643</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>686</c:v>
+                  <c:v>685</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>738</c:v>
+                  <c:v>737</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>775</c:v>
+                  <c:v>774</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>809</c:v>
+                  <c:v>808</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>827</c:v>
+                  <c:v>826</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>843</c:v>
+                  <c:v>842</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>855</c:v>
+                  <c:v>854</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>884</c:v>
+                  <c:v>883</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>889</c:v>
+                  <c:v>888</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>913</c:v>
+                  <c:v>912</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>929</c:v>
+                  <c:v>928</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>956</c:v>
+                  <c:v>954</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>973</c:v>
+                  <c:v>971</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>989</c:v>
+                  <c:v>987</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1006</c:v>
+                  <c:v>1004</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1026</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1048</c:v>
+                  <c:v>1046</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1089</c:v>
+                  <c:v>1087</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1113</c:v>
+                  <c:v>1112</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1124</c:v>
+                  <c:v>1122</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1136</c:v>
+                  <c:v>1134</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1143</c:v>
+                  <c:v>1141</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1152</c:v>
+                  <c:v>1150</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1162</c:v>
+                  <c:v>1160</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1177</c:v>
+                  <c:v>1176</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1187</c:v>
+                  <c:v>1185</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1193</c:v>
+                  <c:v>1191</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1206</c:v>
+                  <c:v>1204</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1215</c:v>
+                  <c:v>1213</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1227</c:v>
+                  <c:v>1225</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1243</c:v>
+                  <c:v>1241</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1247</c:v>
+                  <c:v>1245</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1264</c:v>
+                  <c:v>1262</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1274</c:v>
+                  <c:v>1272</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1288</c:v>
+                  <c:v>1287</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1300</c:v>
+                  <c:v>1299</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1307</c:v>
+                  <c:v>1306</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1317</c:v>
+                  <c:v>1316</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1322</c:v>
+                  <c:v>1321</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1326</c:v>
+                  <c:v>1325</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1333</c:v>
+                  <c:v>1332</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1089,11 +1098,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="38484455"/>
-        <c:axId val="93627614"/>
+        <c:axId val="31917917"/>
+        <c:axId val="4605137"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="38484455"/>
+        <c:axId val="31917917"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1130,7 +1139,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93627614"/>
+        <c:crossAx val="4605137"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1138,7 +1147,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93627614"/>
+        <c:axId val="4605137"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1175,7 +1184,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38484455"/>
+        <c:crossAx val="31917917"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -1214,9 +1223,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>783360</xdr:colOff>
+      <xdr:colOff>783000</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>154440</xdr:rowOff>
+      <xdr:rowOff>154080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1225,7 +1234,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7652160" y="415800"/>
-        <a:ext cx="15419160" cy="6215760"/>
+        <a:ext cx="15418800" cy="6215400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1243,10 +1252,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B76" activeCellId="0" sqref="B76"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C70" activeCellId="0" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1530,11 +1539,11 @@
         <v>28</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C16" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B16,B15)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>29</v>
@@ -1548,7 +1557,7 @@
         <v>31</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C17" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B17,B16)</f>
@@ -1566,7 +1575,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C18" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B18,B17)</f>
@@ -1584,7 +1593,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C19" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B19,B18)</f>
@@ -1602,7 +1611,7 @@
         <v>38</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C20" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B20,B19)</f>
@@ -1620,7 +1629,7 @@
         <v>40</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C21" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B21,B20)</f>
@@ -1638,7 +1647,7 @@
         <v>41</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C22" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B22,B21)</f>
@@ -1656,7 +1665,7 @@
         <v>42</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C23" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B23,B22)</f>
@@ -1674,7 +1683,7 @@
         <v>43</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C24" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B24,B23)</f>
@@ -1692,7 +1701,7 @@
         <v>45</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C25" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B25,B24)</f>
@@ -1710,7 +1719,7 @@
         <v>46</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C26" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B26,B25)</f>
@@ -1728,7 +1737,7 @@
         <v>47</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C27" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B27,B26)</f>
@@ -1746,7 +1755,7 @@
         <v>49</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C28" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B28,B27)</f>
@@ -1764,7 +1773,7 @@
         <v>50</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C29" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B29,B28)</f>
@@ -1782,7 +1791,7 @@
         <v>51</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C30" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B30,B29)</f>
@@ -1800,7 +1809,7 @@
         <v>52</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C31" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B31,B30)</f>
@@ -1818,7 +1827,7 @@
         <v>53</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C32" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B32,B31)</f>
@@ -1836,7 +1845,7 @@
         <v>54</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C33" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B33,B32)</f>
@@ -1854,7 +1863,7 @@
         <v>55</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C34" s="5" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B34,B33)</f>
@@ -1872,7 +1881,7 @@
         <v>56</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C35" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B35,B34)</f>
@@ -1890,7 +1899,7 @@
         <v>57</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C36" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B36,B35)</f>
@@ -1908,7 +1917,7 @@
         <v>58</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C37" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B37,B36)</f>
@@ -1926,7 +1935,7 @@
         <v>61</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C38" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B38,B37)</f>
@@ -1944,7 +1953,7 @@
         <v>63</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C39" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B39,B38)</f>
@@ -1962,7 +1971,7 @@
         <v>64</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C40" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B40,B39)</f>
@@ -1980,7 +1989,7 @@
         <v>67</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C41" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B41,B40)</f>
@@ -1998,7 +2007,7 @@
         <v>68</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C42" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B42,B41)</f>
@@ -2016,7 +2025,7 @@
         <v>70</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C43" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B43,B42)</f>
@@ -2034,7 +2043,7 @@
         <v>71</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C44" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B44,B43)</f>
@@ -2052,7 +2061,7 @@
         <v>72</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C45" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B45,B44)</f>
@@ -2070,11 +2079,11 @@
         <v>73</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C46" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B46,B45)</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>74</v>
@@ -2088,7 +2097,7 @@
         <v>75</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C47" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B47,B46)</f>
@@ -2106,7 +2115,7 @@
         <v>76</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C48" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B48,B47)</f>
@@ -2124,7 +2133,7 @@
         <v>77</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C49" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B49,B48)</f>
@@ -2142,7 +2151,7 @@
         <v>78</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C50" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B50,B49)</f>
@@ -2160,7 +2169,7 @@
         <v>79</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C51" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B51,B50)</f>
@@ -2178,7 +2187,7 @@
         <v>80</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C52" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B52,B51)</f>
@@ -2196,11 +2205,11 @@
         <v>81</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C53" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B53,B52)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>74</v>
@@ -2214,11 +2223,11 @@
         <v>82</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C54" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B54,B53)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>74</v>
@@ -2232,7 +2241,7 @@
         <v>83</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="C55" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B55,B54)</f>
@@ -2250,7 +2259,7 @@
         <v>84</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="C56" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B56,B55)</f>
@@ -2268,7 +2277,7 @@
         <v>85</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C57" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B57,B56)</f>
@@ -2286,7 +2295,7 @@
         <v>86</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C58" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B58,B57)</f>
@@ -2304,11 +2313,11 @@
         <v>88</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C59" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B59,B58)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>89</v>
@@ -2322,11 +2331,11 @@
         <v>90</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C60" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B60,B59)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>91</v>
@@ -2340,7 +2349,7 @@
         <v>92</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C61" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B61,B60)</f>
@@ -2358,7 +2367,7 @@
         <v>93</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C62" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B62,B61)</f>
@@ -2376,7 +2385,7 @@
         <v>94</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C63" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B63,B62)</f>
@@ -2394,7 +2403,7 @@
         <v>95</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C64" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B64,B63)</f>
@@ -2412,7 +2421,7 @@
         <v>96</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C65" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B65,B64)</f>
@@ -2430,7 +2439,7 @@
         <v>97</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C66" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B66,B65)</f>
@@ -2448,7 +2457,7 @@
         <v>98</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C67" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B67,B66)</f>
@@ -2466,7 +2475,7 @@
         <v>100</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C68" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B68,B67)</f>
@@ -2484,11 +2493,11 @@
         <v>101</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C69" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B69,B68)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>102</v>
@@ -2502,7 +2511,7 @@
         <v>103</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C70" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B70,B69)</f>
@@ -2520,7 +2529,7 @@
         <v>104</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="C71" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B71,B70)</f>
@@ -2538,7 +2547,7 @@
         <v>105</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="C72" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B72,B71)</f>
@@ -2556,7 +2565,7 @@
         <v>106</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="C73" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B73,B72)</f>
@@ -2574,7 +2583,7 @@
         <v>107</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C74" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B74,B73)</f>
@@ -2592,7 +2601,7 @@
         <v>108</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="C75" s="3" t="n">
         <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B75,B74)</f>
@@ -2602,6 +2611,24 @@
         <v>109</v>
       </c>
       <c r="E75" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76" s="3" t="n">
+        <v>1338</v>
+      </c>
+      <c r="C76" s="3" t="n">
+        <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B76,B75)</f>
+        <v>6</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>110</v>
       </c>
     </row>

--- a/MB Number of Players/NumberOfPlayers.xlsx
+++ b/MB Number of Players/NumberOfPlayers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="114">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -356,6 +356,12 @@
   </si>
   <si>
     <t xml:space="preserve">July 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 2025</t>
   </si>
 </sst>
 </file>
@@ -568,7 +574,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -623,9 +629,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Arkusz 1'!$A$2:$A$76</c:f>
+              <c:f>'Arkusz 1'!$A$2:$A$77</c:f>
               <c:strCache>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>May 2019</c:v>
                 </c:pt>
@@ -850,16 +856,19 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>July 2025</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>August 2025</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Arkusz 1'!$B$2:$B$76</c:f>
+              <c:f>'Arkusz 1'!$B$2:$B$77</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="75"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -1084,6 +1093,9 @@
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>1338</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1098,11 +1110,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="31917917"/>
-        <c:axId val="4605137"/>
+        <c:axId val="80037850"/>
+        <c:axId val="42352375"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="31917917"/>
+        <c:axId val="80037850"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1139,7 +1151,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4605137"/>
+        <c:crossAx val="42352375"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1147,7 +1159,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4605137"/>
+        <c:axId val="42352375"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1184,7 +1196,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="31917917"/>
+        <c:crossAx val="80037850"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -1223,9 +1235,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>783000</xdr:colOff>
+      <xdr:colOff>782280</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
+      <xdr:rowOff>153360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1234,7 +1246,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7652160" y="415800"/>
-        <a:ext cx="15418800" cy="6215400"/>
+        <a:ext cx="15418080" cy="6214680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1252,10 +1264,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C70" activeCellId="0" sqref="C70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA6" activeCellId="0" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2632,6 +2644,42 @@
         <v>110</v>
       </c>
     </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77" s="3" t="n">
+        <v>1346</v>
+      </c>
+      <c r="C77" s="3" t="n">
+        <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B77,B76)</f>
+        <v>8</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78" s="3" t="n">
+        <v>1347</v>
+      </c>
+      <c r="C78" s="3" t="n">
+        <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B78,B77)</f>
+        <v>1</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/MB Number of Players/NumberOfPlayers.xlsx
+++ b/MB Number of Players/NumberOfPlayers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="119">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -362,6 +362,21 @@
   </si>
   <si>
     <t xml:space="preserve">September 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:59.564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:59.377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 2025</t>
   </si>
 </sst>
 </file>
@@ -574,7 +589,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -629,9 +644,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Arkusz 1'!$A$2:$A$77</c:f>
+              <c:f>'Arkusz 1'!$A$2:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="76"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>May 2019</c:v>
                 </c:pt>
@@ -859,16 +874,28 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>August 2025</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>September 2025</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>October 2025</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>November 2025</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>December 2025</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Arkusz 1'!$B$2:$B$77</c:f>
+              <c:f>'Arkusz 1'!$B$2:$B$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="76"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -1096,6 +1123,18 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>1346</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1347</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1353</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1361</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1370</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1110,11 +1149,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="80037850"/>
-        <c:axId val="42352375"/>
+        <c:axId val="83055706"/>
+        <c:axId val="31134431"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80037850"/>
+        <c:axId val="83055706"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1190,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42352375"/>
+        <c:crossAx val="31134431"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1159,7 +1198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42352375"/>
+        <c:axId val="31134431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1196,7 +1235,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80037850"/>
+        <c:crossAx val="83055706"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
@@ -1228,16 +1267,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1358640</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3600</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>17640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>782280</xdr:colOff>
+      <xdr:colOff>790920</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:rowOff>135720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1245,8 +1284,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7652160" y="415800"/>
-        <a:ext cx="15418080" cy="6214680"/>
+        <a:off x="7661160" y="398520"/>
+        <a:ext cx="15417720" cy="6214320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1264,10 +1303,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA6" activeCellId="0" sqref="AA6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2680,6 +2719,60 @@
         <v>110</v>
       </c>
     </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79" s="3" t="n">
+        <v>1353</v>
+      </c>
+      <c r="C79" s="3" t="n">
+        <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B79,B78)</f>
+        <v>6</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80" s="3" t="n">
+        <v>1361</v>
+      </c>
+      <c r="C80" s="3" t="n">
+        <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B80,B79)</f>
+        <v>8</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B81" s="3" t="n">
+        <v>1370</v>
+      </c>
+      <c r="C81" s="3" t="n">
+        <f aca="false">_xlfn.ORG.LIBREOFFICE.RAWSUBTRACT(B81,B80)</f>
+        <v>9</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
